--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E063A9-FCF7-443A-ACBE-573B0FE0AE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CECDF-CA44-4DF7-A330-99BD99ABAAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7296" yWindow="3084" windowWidth="17280" windowHeight="8964" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="116">
   <si>
     <t>Aantal</t>
   </si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>Batch/Coupage</t>
+  </si>
+  <si>
+    <t>50,1</t>
+  </si>
+  <si>
+    <t>80,5</t>
+  </si>
+  <si>
+    <t>50,2</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>44,8</t>
+  </si>
+  <si>
+    <t>74,1</t>
   </si>
 </sst>
 </file>
@@ -921,7 +939,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,11 +1002,11 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>50.1</v>
-      </c>
-      <c r="E2">
-        <v>80.5</v>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
       </c>
       <c r="F2">
         <v>44176</v>
@@ -1019,11 +1037,11 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>50.2</v>
-      </c>
-      <c r="E3">
-        <v>80.2</v>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
       <c r="F3">
         <v>44176</v>
@@ -1054,11 +1072,11 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>44.8</v>
-      </c>
-      <c r="E4">
-        <v>74.099999999999994</v>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
       </c>
       <c r="F4">
         <v>44146</v>

--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CECDF-CA44-4DF7-A330-99BD99ABAAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03FBDEB-9075-4CF9-9298-A2B6A0EAEA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7296" yWindow="3084" windowWidth="17280" windowHeight="8964" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
   <si>
     <t>Aantal</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>74,1</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -936,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +960,7 @@
     <col min="11" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +994,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1032,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1070,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1096,41 +1108,44 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">

--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CECDF-CA44-4DF7-A330-99BD99ABAAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061974B8-F53F-4386-A546-0C324F4626C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7296" yWindow="3084" windowWidth="17280" windowHeight="8964" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
   <si>
     <t>Aantal</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>74,1</t>
+  </si>
+  <si>
+    <t>Materiaal</t>
   </si>
 </sst>
 </file>
@@ -936,28 +939,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875"/>
-    <col min="2" max="2" width="6.109375"/>
-    <col min="3" max="3" width="53.88671875"/>
+    <col min="1" max="1" width="6.5703125"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="53.85546875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.88671875"/>
-    <col min="6" max="6" width="11.5546875"/>
-    <col min="7" max="7" width="14.33203125"/>
-    <col min="8" max="8" width="13.5546875"/>
-    <col min="9" max="9" width="27.88671875"/>
-    <col min="10" max="10" width="10.88671875"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="6.85546875"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="14.28515625"/>
+    <col min="8" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="27.85546875"/>
+    <col min="10" max="10" width="10.85546875"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +994,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1032,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1070,11 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1096,92 +1108,95 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
@@ -1196,21 +1211,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.6640625" style="3"/>
-    <col min="3" max="3" width="42.5546875" style="3"/>
-    <col min="4" max="4" width="9.44140625" style="4"/>
-    <col min="5" max="5" width="8.44140625" style="3"/>
-    <col min="6" max="6" width="12.88671875" style="3"/>
-    <col min="7" max="7" width="14.6640625" style="5"/>
-    <col min="8" max="8" width="14.44140625" style="5"/>
-    <col min="9" max="9" width="27.109375" style="3"/>
+    <col min="2" max="2" width="15.7109375" style="3"/>
+    <col min="3" max="3" width="42.5703125" style="3"/>
+    <col min="4" max="4" width="9.42578125" style="4"/>
+    <col min="5" max="5" width="8.42578125" style="3"/>
+    <col min="6" max="6" width="12.85546875" style="3"/>
+    <col min="7" max="7" width="14.7109375" style="5"/>
+    <col min="8" max="8" width="14.42578125" style="5"/>
+    <col min="9" max="9" width="27.140625" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +2030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2050,7 +2065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03FBDEB-9075-4CF9-9298-A2B6A0EAEA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6199774-14A3-4A59-B20E-CECED4D622DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
     <sheet name="Paklijst" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="118">
   <si>
     <t>Aantal</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Materiaal</t>
+  </si>
+  <si>
+    <t>Artikelnaam</t>
   </si>
 </sst>
 </file>
@@ -939,28 +942,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M2" activeCellId="1" sqref="L2:L4 M2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875"/>
-    <col min="2" max="2" width="6.109375"/>
-    <col min="3" max="3" width="53.88671875"/>
+    <col min="1" max="1" width="6.5703125"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="53.85546875"/>
     <col min="4" max="4" width="8"/>
-    <col min="5" max="5" width="6.88671875"/>
-    <col min="6" max="6" width="11.5546875"/>
-    <col min="7" max="7" width="14.33203125"/>
-    <col min="8" max="8" width="13.5546875"/>
-    <col min="9" max="9" width="27.88671875"/>
-    <col min="10" max="10" width="10.88671875"/>
-    <col min="11" max="1025" width="8.5546875"/>
+    <col min="5" max="5" width="6.85546875"/>
+    <col min="6" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="14.28515625"/>
+    <col min="8" max="8" width="13.5703125"/>
+    <col min="9" max="9" width="27.85546875"/>
+    <col min="10" max="10" width="10.85546875"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1000,11 @@
       <c r="L1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1035,8 +1041,11 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1082,11 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1111,92 +1123,95 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
@@ -1211,21 +1226,21 @@
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2"/>
-    <col min="2" max="2" width="15.6640625" style="3"/>
-    <col min="3" max="3" width="42.5546875" style="3"/>
-    <col min="4" max="4" width="9.44140625" style="4"/>
-    <col min="5" max="5" width="8.44140625" style="3"/>
-    <col min="6" max="6" width="12.88671875" style="3"/>
-    <col min="7" max="7" width="14.6640625" style="5"/>
-    <col min="8" max="8" width="14.44140625" style="5"/>
-    <col min="9" max="9" width="27.109375" style="3"/>
+    <col min="2" max="2" width="15.7109375" style="3"/>
+    <col min="3" max="3" width="42.5703125" style="3"/>
+    <col min="4" max="4" width="9.42578125" style="4"/>
+    <col min="5" max="5" width="8.42578125" style="3"/>
+    <col min="6" max="6" width="12.85546875" style="3"/>
+    <col min="7" max="7" width="14.7109375" style="5"/>
+    <col min="8" max="8" width="14.42578125" style="5"/>
+    <col min="9" max="9" width="27.140625" style="3"/>
     <col min="10" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1295,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +1625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
@@ -2100,7 +2115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +2185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>

--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6199774-14A3-4A59-B20E-CECED4D622DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359B8FC-176F-4833-8EF2-5449606B941C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
   <si>
     <t>Aantal</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Artikelnaam</t>
+  </si>
+  <si>
+    <t>Soort</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" activeCellId="1" sqref="L2:L4 M2:M4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
         <v>116</v>

--- a/tests/test_paklijsten/paklijst4.xlsx
+++ b/tests/test_paklijsten/paklijst4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\HDS\2d_rectangle_packing\tests\test_paklijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359B8FC-176F-4833-8EF2-5449606B941C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E393EE55-A37A-4D76-898C-3645881DE496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paklijst_zonder_opmaak" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
